--- a/tests/Test4.xlsx
+++ b/tests/Test4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4698" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4719" uniqueCount="284">
   <si>
     <t>#</t>
   </si>
@@ -878,7 +878,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,6 +902,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -911,7 +918,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1036,11 +1043,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1114,6 +1152,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1236,11 +1310,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46487552"/>
-        <c:axId val="248532928"/>
+        <c:axId val="169242624"/>
+        <c:axId val="167962304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46487552"/>
+        <c:axId val="169242624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,7 +1334,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248532928"/>
+        <c:crossAx val="167962304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1268,7 +1342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248532928"/>
+        <c:axId val="167962304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4000"/>
@@ -1280,7 +1354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46487552"/>
+        <c:crossAx val="169242624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1403,11 +1477,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145000960"/>
-        <c:axId val="248535808"/>
+        <c:axId val="169244160"/>
+        <c:axId val="167964032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145000960"/>
+        <c:axId val="169244160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,7 +1500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248535808"/>
+        <c:crossAx val="167964032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1434,7 +1508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248535808"/>
+        <c:axId val="167964032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4000"/>
@@ -1446,7 +1520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145000960"/>
+        <c:crossAx val="169244160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
@@ -1518,59 +1592,71 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Overview!$J$24:$S$24</c:f>
+              <c:f>Overview!$K$22:$S$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Overview!$J$25:$S$25</c:f>
+              <c:f>Overview!$K$23:$S$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
                   <c:v>4594</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>4517</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>4375</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>4218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4323</c:v>
+                </c:pt>
                 <c:pt idx="5">
+                  <c:v>4341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4347</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4555</c:v>
                 </c:pt>
               </c:numCache>
@@ -1586,11 +1672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212987840"/>
-        <c:axId val="212987264"/>
+        <c:axId val="167965760"/>
+        <c:axId val="167966336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212987840"/>
+        <c:axId val="167965760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,12 +1686,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212987264"/>
+        <c:crossAx val="167966336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212987264"/>
+        <c:axId val="167966336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -1618,7 +1704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212987840"/>
+        <c:crossAx val="167965760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -1702,13 +1788,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2018,11 +2104,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T32"/>
+  <dimension ref="B1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2194,7 +2278,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -2215,18 +2299,22 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="31">
+        <v>7</v>
+      </c>
+      <c r="C9" s="32">
         <v>256</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="32">
         <v>2</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="15" t="s">
+      <c r="E9" s="33">
+        <v>7.4652777777777776E-2</v>
+      </c>
+      <c r="F9" s="32">
+        <v>6450</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2274,258 +2362,437 @@
       <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="15"/>
+      <c r="C12" s="9">
+        <v>256</v>
+      </c>
+      <c r="D12" s="9">
+        <v>8</v>
+      </c>
+      <c r="E12" s="14">
+        <v>5.063657407407407E-2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>4375</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>11</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="15"/>
+      <c r="C13" s="9">
+        <v>256</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+      <c r="E13" s="40">
+        <v>4.8819444444444443E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4218</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>12</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="15"/>
+      <c r="C14" s="9">
+        <v>256</v>
+      </c>
+      <c r="D14" s="9">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
+        <v>5.0034722222222223E-2</v>
+      </c>
+      <c r="F14" s="9">
+        <v>4323</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="15"/>
+      <c r="C15" s="9">
+        <v>256</v>
+      </c>
+      <c r="D15" s="9">
+        <v>12</v>
+      </c>
+      <c r="E15" s="14">
+        <v>5.0243055555555555E-2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>4341</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>14</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C16" s="9">
+        <v>256</v>
+      </c>
+      <c r="D16" s="9">
+        <v>16</v>
+      </c>
+      <c r="E16" s="14">
+        <v>5.2719907407407403E-2</v>
+      </c>
+      <c r="F16" s="9">
+        <v>4555</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>15</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C17" s="9">
+        <v>256</v>
+      </c>
+      <c r="D17" s="9">
+        <v>32</v>
+      </c>
+      <c r="E17" s="14">
+        <v>5.0312500000000003E-2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>4347</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>16</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C18" s="9">
+        <v>256</v>
+      </c>
+      <c r="D18" s="9">
+        <v>64</v>
+      </c>
+      <c r="E18" s="14">
+        <v>5.2719907407407403E-2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>4555</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>17</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="9">
+        <v>256</v>
+      </c>
+      <c r="D19" s="9">
+        <v>128</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G19" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8">
         <v>18</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
+      <c r="C20" s="9">
+        <v>256</v>
+      </c>
+      <c r="D20" s="9">
+        <v>256</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="31">
         <v>19</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C21" s="32">
+        <v>256</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="39"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>20</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="9">
+        <v>256</v>
+      </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G22" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="J22" s="36">
+        <v>2</v>
+      </c>
+      <c r="K22" s="37">
+        <v>4</v>
+      </c>
+      <c r="L22" s="37">
+        <v>6</v>
+      </c>
+      <c r="M22" s="37">
+        <v>8</v>
+      </c>
+      <c r="N22" s="37">
+        <v>9</v>
+      </c>
+      <c r="O22" s="37">
+        <v>10</v>
+      </c>
+      <c r="P22" s="37">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="37">
+        <v>16</v>
+      </c>
+      <c r="R22" s="37">
+        <v>32</v>
+      </c>
+      <c r="S22" s="37">
+        <v>64</v>
+      </c>
+      <c r="T22" s="37">
+        <v>128</v>
+      </c>
+      <c r="U22" s="38">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8">
         <v>21</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="9">
+        <v>256</v>
+      </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="15"/>
-      <c r="J23" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G23" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="J23" s="30">
+        <v>6450</v>
+      </c>
+      <c r="K23" s="12">
+        <v>4594</v>
+      </c>
+      <c r="L23" s="12">
+        <v>4517</v>
+      </c>
+      <c r="M23" s="12">
+        <v>4375</v>
+      </c>
+      <c r="N23" s="12">
+        <v>4218</v>
+      </c>
+      <c r="O23" s="12">
+        <v>4323</v>
+      </c>
+      <c r="P23" s="12">
+        <v>4341</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>4555</v>
+      </c>
+      <c r="R23" s="12">
+        <v>4347</v>
+      </c>
+      <c r="S23" s="12">
+        <v>4555</v>
+      </c>
+      <c r="T23" s="12"/>
+      <c r="U23" s="13"/>
+      <c r="W23" s="35"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>22</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="9">
+        <v>256</v>
+      </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="15"/>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-      <c r="L24">
-        <v>6</v>
-      </c>
-      <c r="M24">
-        <v>8</v>
-      </c>
-      <c r="N24">
-        <v>12</v>
-      </c>
-      <c r="O24">
-        <v>16</v>
-      </c>
-      <c r="P24">
-        <v>32</v>
-      </c>
-      <c r="Q24">
-        <v>64</v>
-      </c>
-      <c r="R24">
-        <v>128</v>
-      </c>
-      <c r="S24">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G24" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="W24" s="39"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <v>23</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="9">
+        <v>256</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="15"/>
-      <c r="K25">
-        <v>4594</v>
-      </c>
-      <c r="L25">
-        <v>4517</v>
-      </c>
-      <c r="M25">
-        <v>4375</v>
-      </c>
-      <c r="O25">
-        <v>4555</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G25" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>24</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="9">
+        <v>256</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G26" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <v>25</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="9">
+        <v>256</v>
+      </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G27" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <v>26</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="9">
+        <v>256</v>
+      </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G28" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <v>27</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="9">
+        <v>256</v>
+      </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G29" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <v>28</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="9">
+        <v>256</v>
+      </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G30" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>29</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="9">
+        <v>256</v>
+      </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>30</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="12">
+        <v>256</v>
+      </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="16"/>
+      <c r="G32" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="35"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J21:U21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/tests/Test4.xlsx
+++ b/tests/Test4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4719" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4724" uniqueCount="286">
   <si>
     <t>#</t>
   </si>
@@ -873,6 +873,12 @@
   <si>
     <t>Alpha(256)</t>
   </si>
+  <si>
+    <t>LFF(256)</t>
+  </si>
+  <si>
+    <t>9-&gt;15</t>
+  </si>
 </sst>
 </file>
 
@@ -1078,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1154,18 +1160,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1188,6 +1182,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1310,11 +1328,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169242624"/>
-        <c:axId val="167962304"/>
+        <c:axId val="241729536"/>
+        <c:axId val="212199104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169242624"/>
+        <c:axId val="241729536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1334,7 +1352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167962304"/>
+        <c:crossAx val="212199104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1342,7 +1360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167962304"/>
+        <c:axId val="212199104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4000"/>
@@ -1354,7 +1372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169242624"/>
+        <c:crossAx val="241729536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1477,11 +1495,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169244160"/>
-        <c:axId val="167964032"/>
+        <c:axId val="241731072"/>
+        <c:axId val="212200832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169244160"/>
+        <c:axId val="241731072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167964032"/>
+        <c:crossAx val="212200832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1508,7 +1526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167964032"/>
+        <c:axId val="212200832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4000"/>
@@ -1520,7 +1538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169244160"/>
+        <c:crossAx val="241731072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
@@ -1563,8 +1581,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Alpha(256)</a:t>
+              <a:t>Alpha</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. LFF (256 tasks)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1581,16 +1604,21 @@
           <c:x val="9.3895382217847767E-2"/>
           <c:y val="0.18103018372703411"/>
           <c:w val="0.8576541994750656"/>
-          <c:h val="0.70298993875765525"/>
+          <c:h val="0.65040789619607409"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:xVal>
+          <c:tx>
+            <c:v>Alpha</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
               <c:f>Overview!$K$22:$S$22</c:f>
               <c:numCache>
@@ -1625,8 +1653,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Overview!$K$23:$S$23</c:f>
               <c:numCache>
@@ -1651,18 +1679,97 @@
                   <c:v>4341</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4555</c:v>
+                  <c:v>4364</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4347</c:v>
+                  <c:v>4387</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LFF</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Overview!$K$26:$S$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$K$27:$S$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4190</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1672,11 +1779,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167965760"/>
-        <c:axId val="167966336"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="167965760"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="241731584"/>
+        <c:axId val="212202560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="241731584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,15 +1794,18 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167966336"/>
+        <c:crossAx val="212202560"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="167966336"/>
+        <c:axId val="212202560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
+          <c:max val="4600"/>
           <c:min val="4000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1704,12 +1815,26 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167965760"/>
+        <c:crossAx val="241731584"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46489880755064661"/>
+          <c:y val="0.90579187460722344"/>
+          <c:w val="9.8009124989764065E-2"/>
+          <c:h val="6.7917045580570032E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1762,8 +1887,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1786,16 +1911,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2104,9 +2229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W33"/>
+  <dimension ref="B1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2299,22 +2426,22 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="31">
-        <v>7</v>
-      </c>
-      <c r="C9" s="32">
+      <c r="B9" s="27">
+        <v>7</v>
+      </c>
+      <c r="C9" s="28">
         <v>256</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="28">
         <v>2</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="29">
         <v>7.4652777777777776E-2</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="28">
         <v>6450</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="30" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2388,7 +2515,7 @@
       <c r="D13" s="1">
         <v>9</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="36">
         <v>4.8819444444444443E-2</v>
       </c>
       <c r="F13" s="1">
@@ -2449,10 +2576,10 @@
         <v>16</v>
       </c>
       <c r="E16" s="14">
-        <v>5.2719907407407403E-2</v>
+        <v>5.0509259259259254E-2</v>
       </c>
       <c r="F16" s="9">
-        <v>4555</v>
+        <v>4364</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>279</v>
@@ -2529,33 +2656,37 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="31">
+      <c r="B21" s="27">
         <v>19</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="28">
         <v>256</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="34" t="s">
+      <c r="D21" s="28">
+        <v>4</v>
+      </c>
+      <c r="E21" s="29">
+        <v>5.2986111111111116E-2</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="35"/>
+      <c r="K21" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="39"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
@@ -2564,48 +2695,46 @@
       <c r="C22" s="9">
         <v>256</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="D22" s="9">
+        <v>6</v>
+      </c>
+      <c r="E22" s="14">
+        <v>5.1701388888888887E-2</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="J22" s="36">
-        <v>2</v>
-      </c>
-      <c r="K22" s="37">
+      <c r="J22" s="37"/>
+      <c r="K22" s="32">
         <v>4</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="33">
         <v>6</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="33">
         <v>8</v>
       </c>
-      <c r="N22" s="37">
+      <c r="N22" s="33">
         <v>9</v>
       </c>
-      <c r="O22" s="37">
+      <c r="O22" s="33">
         <v>10</v>
       </c>
-      <c r="P22" s="37">
+      <c r="P22" s="33">
         <v>12</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="33">
         <v>16</v>
       </c>
-      <c r="R22" s="37">
+      <c r="R22" s="33">
         <v>32</v>
       </c>
-      <c r="S22" s="37">
+      <c r="S22" s="34">
         <v>64</v>
       </c>
-      <c r="T22" s="37">
-        <v>128</v>
-      </c>
-      <c r="U22" s="38">
-        <v>256</v>
-      </c>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
     </row>
     <row r="23" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8">
@@ -2614,16 +2743,18 @@
       <c r="C23" s="9">
         <v>256</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="9">
+        <v>8</v>
+      </c>
+      <c r="E23" s="14">
+        <v>4.9606481481481481E-2</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="J23" s="30">
-        <v>6450</v>
-      </c>
-      <c r="K23" s="12">
+      <c r="J23" s="38"/>
+      <c r="K23" s="11">
         <v>4594</v>
       </c>
       <c r="L23" s="12">
@@ -2642,32 +2773,36 @@
         <v>4341</v>
       </c>
       <c r="Q23" s="12">
+        <v>4364</v>
+      </c>
+      <c r="R23" s="12">
+        <v>4387</v>
+      </c>
+      <c r="S23" s="13">
         <v>4555</v>
       </c>
-      <c r="R23" s="12">
-        <v>4347</v>
-      </c>
-      <c r="S23" s="12">
-        <v>4555</v>
-      </c>
-      <c r="T23" s="12"/>
-      <c r="U23" s="13"/>
-      <c r="W23" s="35"/>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="W23" s="31"/>
+    </row>
+    <row r="24" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8">
         <v>22</v>
       </c>
       <c r="C24" s="9">
         <v>256</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="1">
+        <v>9</v>
+      </c>
+      <c r="E24" s="36">
+        <v>4.9085648148148149E-2</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="W24" s="39"/>
+      <c r="W24" s="35"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
@@ -2676,12 +2811,30 @@
       <c r="C25" s="9">
         <v>256</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="D25" s="9">
+        <v>10</v>
+      </c>
+      <c r="E25" s="14">
+        <v>4.9675925925925929E-2</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="15" t="s">
         <v>281</v>
       </c>
+      <c r="J25" s="35"/>
+      <c r="K25" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
@@ -2690,26 +2843,94 @@
       <c r="C26" s="9">
         <v>256</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="9">
+        <v>12</v>
+      </c>
+      <c r="E26" s="14">
+        <v>4.9583333333333333E-2</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="15" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J26" s="37"/>
+      <c r="K26" s="32">
+        <v>4</v>
+      </c>
+      <c r="L26" s="33">
+        <v>6</v>
+      </c>
+      <c r="M26" s="33">
+        <v>8</v>
+      </c>
+      <c r="N26" s="33">
+        <v>9</v>
+      </c>
+      <c r="O26" s="33">
+        <v>10</v>
+      </c>
+      <c r="P26" s="33">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="33">
+        <v>16</v>
+      </c>
+      <c r="R26" s="33">
+        <v>32</v>
+      </c>
+      <c r="S26" s="34">
+        <v>64</v>
+      </c>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+    </row>
+    <row r="27" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8">
         <v>25</v>
       </c>
       <c r="C27" s="9">
         <v>256</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="9">
+        <v>16</v>
+      </c>
+      <c r="E27" s="14">
+        <v>5.1134259259259261E-2</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="15" t="s">
         <v>281</v>
       </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="11">
+        <v>4578</v>
+      </c>
+      <c r="L27" s="12">
+        <v>4433</v>
+      </c>
+      <c r="M27" s="12">
+        <v>4286</v>
+      </c>
+      <c r="N27" s="12">
+        <v>4190</v>
+      </c>
+      <c r="O27" s="12">
+        <v>4292</v>
+      </c>
+      <c r="P27" s="12">
+        <v>4321</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>4333</v>
+      </c>
+      <c r="R27" s="12">
+        <v>4347</v>
+      </c>
+      <c r="S27" s="13">
+        <v>4444</v>
+      </c>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
@@ -2718,8 +2939,12 @@
       <c r="C28" s="9">
         <v>256</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="D28" s="9">
+        <v>32</v>
+      </c>
+      <c r="E28" s="14">
+        <v>5.0752314814814813E-2</v>
+      </c>
       <c r="F28" s="9"/>
       <c r="G28" s="15" t="s">
         <v>281</v>
@@ -2732,8 +2957,12 @@
       <c r="C29" s="9">
         <v>256</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="D29" s="9">
+        <v>64</v>
+      </c>
+      <c r="E29" s="14">
+        <v>4.9837962962962966E-2</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="15" t="s">
         <v>281</v>
@@ -2781,17 +3010,103 @@
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="35"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="27"/>
+      <c r="C33" s="28">
+        <v>256</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="14">
+        <v>4.9050925925925921E-2</v>
+      </c>
+      <c r="F33" s="9">
+        <v>4238</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9">
+        <v>9</v>
+      </c>
+      <c r="E34" s="36">
+        <v>3.5949074074074071E-2</v>
+      </c>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9">
+        <v>15</v>
+      </c>
+      <c r="E35" s="14">
+        <v>1.6597222222222222E-2</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="9">
+        <v>2048</v>
+      </c>
+      <c r="D38" s="9">
+        <v>9</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0.4604050925925926</v>
+      </c>
+      <c r="F38" s="9">
+        <v>39779</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="44">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="C39" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D39" s="12">
+        <v>9</v>
+      </c>
+      <c r="E39" s="43">
+        <v>0.44796296296296295</v>
+      </c>
+      <c r="F39" s="12">
+        <v>38704</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="H39" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J21:U21"/>
+  <mergeCells count="2">
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="K25:S25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/tests/Test4.xlsx
+++ b/tests/Test4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5A41B7-2604-D147-AEB8-41DB60CB7F1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4490093B-DF2E-C041-8FB9-EBD4E1BF35D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -15,17 +15,13 @@
     <sheet name="4" sheetId="5" r:id="rId5"/>
     <sheet name="5" sheetId="6" r:id="rId6"/>
     <sheet name="6" sheetId="7" r:id="rId7"/>
-    <sheet name="Overview (2)" sheetId="8" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4774" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4726" uniqueCount="294">
   <si>
     <t>#</t>
   </si>
@@ -908,9 +904,6 @@
   <si>
     <t>FIFO(256)</t>
   </si>
-  <si>
-    <t>LFF-DP</t>
-  </si>
 </sst>
 </file>
 
@@ -1131,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1240,19 +1233,16 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1262,12 +1252,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3676,624 +3660,6 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>256 (16)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.43674661356208788"/>
-          <c:y val="1.2239363496490838E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10163730732795244"/>
-          <c:y val="0.15089872386641323"/>
-          <c:w val="0.86735493385159423"/>
-          <c:h val="0.74439217041443484"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Overview (2)'!$J$3:$M$3</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FIFO</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LFF</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LFF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Overview (2)'!$J$4:$M$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4555</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4418</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4418</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3408-6F4D-85D9-398509EE4994}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="241729536"/>
-        <c:axId val="212199104"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="241729536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="212199104"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="212199104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="4000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241729536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10015507436570428"/>
-          <c:y val="0.14862277631962673"/>
-          <c:w val="0.86928937007874019"/>
-          <c:h val="0.73539734616506269"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Overview (2)'!$R$3:$T$3</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>FIFO</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LFF</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LFF-DP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Overview (2)'!$R$4:$T$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4286</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4052</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-569F-E149-AF33-5EF1B29F6244}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="241731072"/>
-        <c:axId val="212200832"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="241731072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="212200832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="212200832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241731072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="100"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FIFO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs. LFF (256 tasks)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.3895382217847767E-2"/>
-          <c:y val="0.18103018372703411"/>
-          <c:w val="0.8576541994750656"/>
-          <c:h val="0.65040789619607409"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Alpha</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Overview (2)'!$K$22:$S$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Overview (2)'!$K$23:$S$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4594</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4517</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4218</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4323</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4341</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4364</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4387</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4555</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0AE-B04B-BE57-6232CAE1BE9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>LFF</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Overview (2)'!$K$26:$S$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Overview (2)'!$K$27:$S$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4578</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4433</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4286</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4190</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4292</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4321</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4347</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4444</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B0AE-B04B-BE57-6232CAE1BE9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="241731584"/>
-        <c:axId val="212202560"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="241731584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212202560"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="212202560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="4600"/>
-          <c:min val="4000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241731584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="200"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.46489880755064661"/>
-          <c:y val="0.90579187460722344"/>
-          <c:w val="9.8009124989764065E-2"/>
-          <c:h val="6.7917045580570032E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4452,1169 +3818,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>92074</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D9BD8F-79C6-C047-B7FF-4B3C2865A266}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C27F96-6F12-104E-9D3C-C72C2C627AFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF21AC7F-C832-CD4C-89A2-B94B5EE0E7D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>218.99</v>
-          </cell>
-          <cell r="E3">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>143.47999999999999</v>
-          </cell>
-          <cell r="E4">
-            <v>97</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>496.51</v>
-          </cell>
-          <cell r="E5">
-            <v>190</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>194.97</v>
-          </cell>
-          <cell r="E6">
-            <v>171</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>474.06</v>
-          </cell>
-          <cell r="E7">
-            <v>266</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>175.06</v>
-          </cell>
-          <cell r="E8">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>136.1</v>
-          </cell>
-          <cell r="E9">
-            <v>414</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>140.38999999999999</v>
-          </cell>
-          <cell r="E10">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>198.02</v>
-          </cell>
-          <cell r="E11">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>176.84</v>
-          </cell>
-          <cell r="E12">
-            <v>89</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>434.31</v>
-          </cell>
-          <cell r="E13">
-            <v>303</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>236.35</v>
-          </cell>
-          <cell r="E14">
-            <v>548</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>223.17</v>
-          </cell>
-          <cell r="E15">
-            <v>103</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>368.11</v>
-          </cell>
-          <cell r="E16">
-            <v>168</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>372.31</v>
-          </cell>
-          <cell r="E17">
-            <v>162</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>414.49</v>
-          </cell>
-          <cell r="E18">
-            <v>601</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>223.26</v>
-          </cell>
-          <cell r="E19">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>134.56</v>
-          </cell>
-          <cell r="E20">
-            <v>54</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>288.42</v>
-          </cell>
-          <cell r="E21">
-            <v>599</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>443.97</v>
-          </cell>
-          <cell r="E22">
-            <v>187</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>209.8</v>
-          </cell>
-          <cell r="E23">
-            <v>301</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>345.28</v>
-          </cell>
-          <cell r="E24">
-            <v>441</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>287.86</v>
-          </cell>
-          <cell r="E25">
-            <v>118</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>247.6</v>
-          </cell>
-          <cell r="E26">
-            <v>213</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>203.88</v>
-          </cell>
-          <cell r="E27">
-            <v>375</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>193.16</v>
-          </cell>
-          <cell r="E28">
-            <v>402</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>353.27</v>
-          </cell>
-          <cell r="E29">
-            <v>225</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30">
-            <v>300.62</v>
-          </cell>
-          <cell r="E30">
-            <v>329</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>199.45</v>
-          </cell>
-          <cell r="E31">
-            <v>356</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32">
-            <v>142.18</v>
-          </cell>
-          <cell r="E32">
-            <v>305</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33">
-            <v>128.78</v>
-          </cell>
-          <cell r="E33">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34">
-            <v>182.13</v>
-          </cell>
-          <cell r="E34">
-            <v>235</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35">
-            <v>375.53</v>
-          </cell>
-          <cell r="E35">
-            <v>628</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36">
-            <v>186.84</v>
-          </cell>
-          <cell r="E36">
-            <v>207</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37">
-            <v>460.47</v>
-          </cell>
-          <cell r="E37">
-            <v>280</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38">
-            <v>349.69</v>
-          </cell>
-          <cell r="E38">
-            <v>143</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39">
-            <v>250.41</v>
-          </cell>
-          <cell r="E39">
-            <v>480</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40">
-            <v>120.53</v>
-          </cell>
-          <cell r="E40">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41">
-            <v>412.76</v>
-          </cell>
-          <cell r="E41">
-            <v>577</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42">
-            <v>420.84</v>
-          </cell>
-          <cell r="E42">
-            <v>178</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43">
-            <v>244.24</v>
-          </cell>
-          <cell r="E43">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44">
-            <v>122.65</v>
-          </cell>
-          <cell r="E44">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45">
-            <v>262.87</v>
-          </cell>
-          <cell r="E45">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46">
-            <v>426.97</v>
-          </cell>
-          <cell r="E46">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47">
-            <v>123.6</v>
-          </cell>
-          <cell r="E47">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48">
-            <v>172.92</v>
-          </cell>
-          <cell r="E48">
-            <v>107</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49">
-            <v>334.92</v>
-          </cell>
-          <cell r="E49">
-            <v>129</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50">
-            <v>171.27</v>
-          </cell>
-          <cell r="E50">
-            <v>117</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51">
-            <v>135.56</v>
-          </cell>
-          <cell r="E51">
-            <v>87</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52">
-            <v>135.81</v>
-          </cell>
-          <cell r="E52">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="D53">
-            <v>206.14</v>
-          </cell>
-          <cell r="E53">
-            <v>340</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="D54">
-            <v>144.80000000000001</v>
-          </cell>
-          <cell r="E54">
-            <v>111</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="D55">
-            <v>485.04</v>
-          </cell>
-          <cell r="E55">
-            <v>262</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="D56">
-            <v>190.01</v>
-          </cell>
-          <cell r="E56">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="D57">
-            <v>314.17</v>
-          </cell>
-          <cell r="E57">
-            <v>117</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="D58">
-            <v>197.63</v>
-          </cell>
-          <cell r="E58">
-            <v>894</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59">
-            <v>235.68</v>
-          </cell>
-          <cell r="E59">
-            <v>88</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60">
-            <v>123.48</v>
-          </cell>
-          <cell r="E60">
-            <v>139</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61">
-            <v>306.62</v>
-          </cell>
-          <cell r="E61">
-            <v>199</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62">
-            <v>153.16</v>
-          </cell>
-          <cell r="E62">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63">
-            <v>390.21</v>
-          </cell>
-          <cell r="E63">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64">
-            <v>122.16</v>
-          </cell>
-          <cell r="E64">
-            <v>179</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65">
-            <v>243.23</v>
-          </cell>
-          <cell r="E65">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66">
-            <v>210.05</v>
-          </cell>
-          <cell r="E66">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67">
-            <v>414.13</v>
-          </cell>
-          <cell r="E67">
-            <v>251</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68">
-            <v>354.57</v>
-          </cell>
-          <cell r="E68">
-            <v>193</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69">
-            <v>120</v>
-          </cell>
-          <cell r="E69">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70">
-            <v>167.49</v>
-          </cell>
-          <cell r="E70">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71">
-            <v>126.15</v>
-          </cell>
-          <cell r="E71">
-            <v>187</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72">
-            <v>243.98</v>
-          </cell>
-          <cell r="E72">
-            <v>377</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73">
-            <v>156.72</v>
-          </cell>
-          <cell r="E73">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74">
-            <v>129.61000000000001</v>
-          </cell>
-          <cell r="E74">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="D75">
-            <v>180.67</v>
-          </cell>
-          <cell r="E75">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="D76">
-            <v>271.35000000000002</v>
-          </cell>
-          <cell r="E76">
-            <v>158</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="D77">
-            <v>215.17</v>
-          </cell>
-          <cell r="E77">
-            <v>908</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="D78">
-            <v>147.15</v>
-          </cell>
-          <cell r="E78">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="D79">
-            <v>454</v>
-          </cell>
-          <cell r="E79">
-            <v>370</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="D80">
-            <v>410.02</v>
-          </cell>
-          <cell r="E80">
-            <v>300</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="D81">
-            <v>178.19</v>
-          </cell>
-          <cell r="E81">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="D82">
-            <v>380.6</v>
-          </cell>
-          <cell r="E82">
-            <v>121</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="D83">
-            <v>229.24</v>
-          </cell>
-          <cell r="E83">
-            <v>1058</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="D84">
-            <v>166.44</v>
-          </cell>
-          <cell r="E84">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="D85">
-            <v>271.37</v>
-          </cell>
-          <cell r="E85">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="D86">
-            <v>126.78</v>
-          </cell>
-          <cell r="E86">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="D87">
-            <v>120.08</v>
-          </cell>
-          <cell r="E87">
-            <v>147</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="D88">
-            <v>298.56</v>
-          </cell>
-          <cell r="E88">
-            <v>107</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="D89">
-            <v>166.23</v>
-          </cell>
-          <cell r="E89">
-            <v>412</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="D90">
-            <v>476.72</v>
-          </cell>
-          <cell r="E90">
-            <v>647</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="D91">
-            <v>182.2</v>
-          </cell>
-          <cell r="E91">
-            <v>473</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="D92">
-            <v>177.42</v>
-          </cell>
-          <cell r="E92">
-            <v>102</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="D93">
-            <v>177.98</v>
-          </cell>
-          <cell r="E93">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="D94">
-            <v>204.71</v>
-          </cell>
-          <cell r="E94">
-            <v>140</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="D95">
-            <v>156.36000000000001</v>
-          </cell>
-          <cell r="E95">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="D96">
-            <v>167.35</v>
-          </cell>
-          <cell r="E96">
-            <v>316</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="D97">
-            <v>175.38</v>
-          </cell>
-          <cell r="E97">
-            <v>58</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="D98">
-            <v>384.2</v>
-          </cell>
-          <cell r="E98">
-            <v>84</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="D99">
-            <v>147.31</v>
-          </cell>
-          <cell r="E99">
-            <v>677</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="D100">
-            <v>313.36</v>
-          </cell>
-          <cell r="E100">
-            <v>451</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="D101">
-            <v>157.5</v>
-          </cell>
-          <cell r="E101">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="D102">
-            <v>221.73</v>
-          </cell>
-          <cell r="E102">
-            <v>356</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="D103">
-            <v>181.67</v>
-          </cell>
-          <cell r="E103">
-            <v>94</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="D104">
-            <v>440.44</v>
-          </cell>
-          <cell r="E104">
-            <v>232</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="D105">
-            <v>347.03</v>
-          </cell>
-          <cell r="E105">
-            <v>2116</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="D106">
-            <v>212.1</v>
-          </cell>
-          <cell r="E106">
-            <v>993</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="D107">
-            <v>173.78</v>
-          </cell>
-          <cell r="E107">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="D108">
-            <v>237.35</v>
-          </cell>
-          <cell r="E108">
-            <v>104</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="D109">
-            <v>360.28</v>
-          </cell>
-          <cell r="E109">
-            <v>195</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="D110">
-            <v>439.23</v>
-          </cell>
-          <cell r="E110">
-            <v>199</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="D111">
-            <v>159.83000000000001</v>
-          </cell>
-          <cell r="E111">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="D112">
-            <v>224.12</v>
-          </cell>
-          <cell r="E112">
-            <v>377</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="D113">
-            <v>164.24</v>
-          </cell>
-          <cell r="E113">
-            <v>665</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="D114">
-            <v>219.36</v>
-          </cell>
-          <cell r="E114">
-            <v>103</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="D115">
-            <v>169.44</v>
-          </cell>
-          <cell r="E115">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="D116">
-            <v>485.97</v>
-          </cell>
-          <cell r="E116">
-            <v>171</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="D117">
-            <v>405.87</v>
-          </cell>
-          <cell r="E117">
-            <v>481</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="D118">
-            <v>127.95</v>
-          </cell>
-          <cell r="E118">
-            <v>119</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="D119">
-            <v>156.69</v>
-          </cell>
-          <cell r="E119">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="D120">
-            <v>254.77</v>
-          </cell>
-          <cell r="E120">
-            <v>99</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="D121">
-            <v>193.58</v>
-          </cell>
-          <cell r="E121">
-            <v>154</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="D122">
-            <v>381.32</v>
-          </cell>
-          <cell r="E122">
-            <v>243</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="D123">
-            <v>448.52</v>
-          </cell>
-          <cell r="E123">
-            <v>204</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="D124">
-            <v>133.75</v>
-          </cell>
-          <cell r="E124">
-            <v>114</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="D125">
-            <v>165.9</v>
-          </cell>
-          <cell r="E125">
-            <v>130</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="D126">
-            <v>273.60000000000002</v>
-          </cell>
-          <cell r="E126">
-            <v>78</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="D127">
-            <v>285.79000000000002</v>
-          </cell>
-          <cell r="E127">
-            <v>102</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="D128">
-            <v>334.6</v>
-          </cell>
-          <cell r="E128">
-            <v>378</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="D129">
-            <v>201.3</v>
-          </cell>
-          <cell r="E129">
-            <v>908</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="D130">
-            <v>323.3</v>
-          </cell>
-          <cell r="E130">
-            <v>861</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6394,17 +4597,17 @@
         <v>281</v>
       </c>
       <c r="J21" s="35"/>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="47"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="46"/>
       <c r="T21" s="37"/>
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
@@ -6546,17 +4749,17 @@
         <v>281</v>
       </c>
       <c r="J25" s="35"/>
-      <c r="K25" s="45" t="s">
+      <c r="K25" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="47"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="46"/>
       <c r="T25" s="37"/>
       <c r="U25" s="35"/>
       <c r="V25" s="35"/>
@@ -6810,7 +5013,7 @@
       </c>
     </row>
     <row r="39" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="44">
+      <c r="B39" s="41">
         <v>-2.7E-2</v>
       </c>
       <c r="C39" s="12">
@@ -6819,7 +5022,7 @@
       <c r="D39" s="12">
         <v>9</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="40">
         <v>0.44796296296296295</v>
       </c>
       <c r="F39" s="12">
@@ -6881,20 +5084,20 @@
       <c r="I2" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48" t="s">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="42" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6923,16 +5126,16 @@
       <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="43">
         <v>1</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="8">
@@ -6959,18 +5162,18 @@
       <c r="I4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="43">
         <v>0.81268270834197409</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="43">
         <v>1</v>
       </c>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
@@ -6997,20 +5200,20 @@
       <c r="I5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="43">
         <v>0.80622603424081019</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="43">
         <v>0.97502297552090622</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="43">
         <v>1</v>
       </c>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -7037,22 +5240,22 @@
       <c r="I6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="43">
         <v>0.64532489237202506</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="43">
         <v>0.1377713811331607</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="43">
         <v>0.16045620245541917</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="43">
         <v>1</v>
       </c>
-      <c r="P6" s="49"/>
+      <c r="P6" s="43"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -7079,22 +5282,22 @@
       <c r="I7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="43">
         <v>0.89165127211367312</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="43">
         <v>0.85072760620685783</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="43">
         <v>0.87150613637675278</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="43">
         <v>0.43657077198933375</v>
       </c>
-      <c r="P7" s="49">
+      <c r="P7" s="43">
         <v>1</v>
       </c>
     </row>
@@ -40521,7 +38724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:I258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -47216,893 +45419,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898C1C80-4817-F74E-B8B9-D6EA8B0C0514}">
-  <dimension ref="B1:W39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>256</v>
-      </c>
-      <c r="D3" s="9">
-        <v>16</v>
-      </c>
-      <c r="E3" s="14">
-        <v>5.2719907407407403E-2</v>
-      </c>
-      <c r="F3" s="9">
-        <v>4555</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9">
-        <v>256</v>
-      </c>
-      <c r="D4" s="9">
-        <v>16</v>
-      </c>
-      <c r="E4" s="14">
-        <v>5.2511574074074079E-2</v>
-      </c>
-      <c r="F4" s="9">
-        <v>4537</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="H4" s="23">
-        <v>3.9500000000000004E-3</v>
-      </c>
-      <c r="J4" s="11">
-        <v>4555</v>
-      </c>
-      <c r="K4" s="12">
-        <v>4418</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13">
-        <v>4418</v>
-      </c>
-      <c r="R4" s="11">
-        <v>4375</v>
-      </c>
-      <c r="S4" s="12">
-        <v>4286</v>
-      </c>
-      <c r="T4" s="12">
-        <v>4052</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9">
-        <v>256</v>
-      </c>
-      <c r="D5" s="9">
-        <v>16</v>
-      </c>
-      <c r="E5" s="14">
-        <v>5.1134259259259261E-2</v>
-      </c>
-      <c r="F5" s="9">
-        <v>4418</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="8">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9">
-        <v>256</v>
-      </c>
-      <c r="D6" s="9">
-        <v>8</v>
-      </c>
-      <c r="E6" s="14">
-        <v>5.063657407407407E-2</v>
-      </c>
-      <c r="F6" s="9">
-        <v>4375</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="8">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9">
-        <v>256</v>
-      </c>
-      <c r="D7" s="9">
-        <v>8</v>
-      </c>
-      <c r="E7" s="14">
-        <v>5.0601851851851849E-2</v>
-      </c>
-      <c r="F7" s="9">
-        <v>4372</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9">
-        <v>256</v>
-      </c>
-      <c r="D8" s="9">
-        <v>8</v>
-      </c>
-      <c r="E8" s="14">
-        <v>4.9606481481481481E-2</v>
-      </c>
-      <c r="F8" s="9">
-        <v>4286</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="27">
-        <v>7</v>
-      </c>
-      <c r="C9" s="28">
-        <v>256</v>
-      </c>
-      <c r="D9" s="28">
-        <v>2</v>
-      </c>
-      <c r="E9" s="29">
-        <v>7.4652777777777776E-2</v>
-      </c>
-      <c r="F9" s="28">
-        <v>6450</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="8">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9">
-        <v>256</v>
-      </c>
-      <c r="D10" s="9">
-        <v>4</v>
-      </c>
-      <c r="E10" s="14">
-        <v>5.31712962962963E-2</v>
-      </c>
-      <c r="F10" s="9">
-        <v>4594</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="8">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>256</v>
-      </c>
-      <c r="D11" s="9">
-        <v>6</v>
-      </c>
-      <c r="E11" s="14">
-        <v>5.2280092592592593E-2</v>
-      </c>
-      <c r="F11" s="9">
-        <v>4517</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="8">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9">
-        <v>256</v>
-      </c>
-      <c r="D12" s="9">
-        <v>8</v>
-      </c>
-      <c r="E12" s="14">
-        <v>5.063657407407407E-2</v>
-      </c>
-      <c r="F12" s="9">
-        <v>4375</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="8">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9">
-        <v>256</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9</v>
-      </c>
-      <c r="E13" s="36">
-        <v>4.8819444444444443E-2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4218</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="8">
-        <v>12</v>
-      </c>
-      <c r="C14" s="9">
-        <v>256</v>
-      </c>
-      <c r="D14" s="9">
-        <v>10</v>
-      </c>
-      <c r="E14" s="14">
-        <v>5.0034722222222223E-2</v>
-      </c>
-      <c r="F14" s="9">
-        <v>4323</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="8">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9">
-        <v>256</v>
-      </c>
-      <c r="D15" s="9">
-        <v>12</v>
-      </c>
-      <c r="E15" s="14">
-        <v>5.0243055555555555E-2</v>
-      </c>
-      <c r="F15" s="9">
-        <v>4341</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="8">
-        <v>14</v>
-      </c>
-      <c r="C16" s="9">
-        <v>256</v>
-      </c>
-      <c r="D16" s="9">
-        <v>16</v>
-      </c>
-      <c r="E16" s="14">
-        <v>5.0509259259259254E-2</v>
-      </c>
-      <c r="F16" s="9">
-        <v>4364</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="8">
-        <v>15</v>
-      </c>
-      <c r="C17" s="9">
-        <v>256</v>
-      </c>
-      <c r="D17" s="9">
-        <v>32</v>
-      </c>
-      <c r="E17" s="14">
-        <v>5.0312500000000003E-2</v>
-      </c>
-      <c r="F17" s="9">
-        <v>4347</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="8">
-        <v>16</v>
-      </c>
-      <c r="C18" s="9">
-        <v>256</v>
-      </c>
-      <c r="D18" s="9">
-        <v>64</v>
-      </c>
-      <c r="E18" s="14">
-        <v>5.2719907407407403E-2</v>
-      </c>
-      <c r="F18" s="9">
-        <v>4555</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="8">
-        <v>17</v>
-      </c>
-      <c r="C19" s="9">
-        <v>256</v>
-      </c>
-      <c r="D19" s="9">
-        <v>128</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
-        <v>18</v>
-      </c>
-      <c r="C20" s="9">
-        <v>256</v>
-      </c>
-      <c r="D20" s="9">
-        <v>256</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="27">
-        <v>19</v>
-      </c>
-      <c r="C21" s="28">
-        <v>256</v>
-      </c>
-      <c r="D21" s="28">
-        <v>4</v>
-      </c>
-      <c r="E21" s="29">
-        <v>5.2986111111111116E-2</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="45" t="s">
-        <v>293</v>
-      </c>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="8">
-        <v>20</v>
-      </c>
-      <c r="C22" s="9">
-        <v>256</v>
-      </c>
-      <c r="D22" s="9">
-        <v>6</v>
-      </c>
-      <c r="E22" s="14">
-        <v>5.1701388888888887E-2</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="32">
-        <v>4</v>
-      </c>
-      <c r="L22" s="33">
-        <v>6</v>
-      </c>
-      <c r="M22" s="33">
-        <v>8</v>
-      </c>
-      <c r="N22" s="33">
-        <v>9</v>
-      </c>
-      <c r="O22" s="33">
-        <v>10</v>
-      </c>
-      <c r="P22" s="33">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="33">
-        <v>16</v>
-      </c>
-      <c r="R22" s="33">
-        <v>32</v>
-      </c>
-      <c r="S22" s="34">
-        <v>64</v>
-      </c>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-    </row>
-    <row r="23" spans="2:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
-        <v>21</v>
-      </c>
-      <c r="C23" s="9">
-        <v>256</v>
-      </c>
-      <c r="D23" s="9">
-        <v>8</v>
-      </c>
-      <c r="E23" s="14">
-        <v>4.9606481481481481E-2</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="J23" s="38"/>
-      <c r="K23" s="11">
-        <v>4594</v>
-      </c>
-      <c r="L23" s="12">
-        <v>4517</v>
-      </c>
-      <c r="M23" s="12">
-        <v>4375</v>
-      </c>
-      <c r="N23" s="12">
-        <v>4218</v>
-      </c>
-      <c r="O23" s="12">
-        <v>4323</v>
-      </c>
-      <c r="P23" s="12">
-        <v>4341</v>
-      </c>
-      <c r="Q23" s="12">
-        <v>4364</v>
-      </c>
-      <c r="R23" s="12">
-        <v>4387</v>
-      </c>
-      <c r="S23" s="13">
-        <v>4555</v>
-      </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="W23" s="31"/>
-    </row>
-    <row r="24" spans="2:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
-        <v>22</v>
-      </c>
-      <c r="C24" s="9">
-        <v>256</v>
-      </c>
-      <c r="D24" s="1">
-        <v>9</v>
-      </c>
-      <c r="E24" s="36">
-        <v>4.9085648148148149E-2</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="W24" s="35"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="8">
-        <v>23</v>
-      </c>
-      <c r="C25" s="9">
-        <v>256</v>
-      </c>
-      <c r="D25" s="9">
-        <v>10</v>
-      </c>
-      <c r="E25" s="14">
-        <v>4.9421296296296297E-2</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="35"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="8">
-        <v>24</v>
-      </c>
-      <c r="C26" s="9">
-        <v>256</v>
-      </c>
-      <c r="D26" s="9">
-        <v>12</v>
-      </c>
-      <c r="E26" s="14">
-        <v>4.9583333333333333E-2</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="32">
-        <v>4</v>
-      </c>
-      <c r="L26" s="33">
-        <v>6</v>
-      </c>
-      <c r="M26" s="33">
-        <v>8</v>
-      </c>
-      <c r="N26" s="33">
-        <v>9</v>
-      </c>
-      <c r="O26" s="33">
-        <v>10</v>
-      </c>
-      <c r="P26" s="33">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="33">
-        <v>16</v>
-      </c>
-      <c r="R26" s="33">
-        <v>32</v>
-      </c>
-      <c r="S26" s="34">
-        <v>64</v>
-      </c>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-    </row>
-    <row r="27" spans="2:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
-        <v>25</v>
-      </c>
-      <c r="C27" s="9">
-        <v>256</v>
-      </c>
-      <c r="D27" s="9">
-        <v>16</v>
-      </c>
-      <c r="E27" s="14">
-        <v>5.1134259259259261E-2</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="11">
-        <v>4578</v>
-      </c>
-      <c r="L27" s="12">
-        <v>4433</v>
-      </c>
-      <c r="M27" s="12">
-        <v>4286</v>
-      </c>
-      <c r="N27" s="12">
-        <v>4190</v>
-      </c>
-      <c r="O27" s="12">
-        <v>4292</v>
-      </c>
-      <c r="P27" s="12">
-        <v>4321</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>4333</v>
-      </c>
-      <c r="R27" s="12">
-        <v>4347</v>
-      </c>
-      <c r="S27" s="13">
-        <v>4444</v>
-      </c>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="8">
-        <v>26</v>
-      </c>
-      <c r="C28" s="9">
-        <v>256</v>
-      </c>
-      <c r="D28" s="9">
-        <v>32</v>
-      </c>
-      <c r="E28" s="14">
-        <v>5.0752314814814813E-2</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="8">
-        <v>27</v>
-      </c>
-      <c r="C29" s="9">
-        <v>256</v>
-      </c>
-      <c r="D29" s="9">
-        <v>64</v>
-      </c>
-      <c r="E29" s="14">
-        <v>4.9837962962962966E-2</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="8">
-        <v>28</v>
-      </c>
-      <c r="C30" s="9">
-        <v>256</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="8">
-        <v>29</v>
-      </c>
-      <c r="C31" s="9">
-        <v>256</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="11">
-        <v>30</v>
-      </c>
-      <c r="C32" s="12">
-        <v>256</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="27"/>
-      <c r="C33" s="28">
-        <v>256</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="E33" s="14">
-        <v>4.9050925925925921E-2</v>
-      </c>
-      <c r="F33" s="9">
-        <v>4238</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9">
-        <v>9</v>
-      </c>
-      <c r="E34" s="36">
-        <v>3.5949074074074071E-2</v>
-      </c>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9">
-        <v>15</v>
-      </c>
-      <c r="E35" s="14">
-        <v>1.6597222222222222E-2</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="8"/>
-      <c r="C38" s="9">
-        <v>2048</v>
-      </c>
-      <c r="D38" s="9">
-        <v>9</v>
-      </c>
-      <c r="E38" s="14">
-        <v>0.4604050925925926</v>
-      </c>
-      <c r="F38" s="9">
-        <v>39779</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="44">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="C39" s="12">
-        <v>2048</v>
-      </c>
-      <c r="D39" s="12">
-        <v>9</v>
-      </c>
-      <c r="E39" s="43">
-        <v>0.44796296296296295</v>
-      </c>
-      <c r="F39" s="12">
-        <v>38704</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="H39" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="K25:S25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>